--- a/Proiect 17/ProiectFD.xlsx
+++ b/Proiect 17/ProiectFD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diana.forrai/Desktop/an4/FD/Fiabilitate-si-Diagnoza/Proiect 17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4A9870-75A3-1443-BA3A-68BE5CFCA692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279ECA5-D7C1-CF45-8DB0-E2080B604A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{29064307-867F-4D48-90FB-D8A75B031525}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{29064307-867F-4D48-90FB-D8A75B031525}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,23 +570,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>362858</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>171969</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>402166</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>725715</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>142372</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>176388</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{373E1896-7DF6-EDCD-5122-CE2EA345E190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82000D91-D854-71A5-0018-C759905A3D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,8 +602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2056191" y="22346572"/>
-          <a:ext cx="16449524" cy="9243419"/>
+          <a:off x="21568833" y="17399000"/>
+          <a:ext cx="9934222" cy="5588000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6665AD2C-3746-7545-869E-BEDFA3760268}">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH43" sqref="AH43"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE116" sqref="AE116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Proiect 17/ProiectFD.xlsx
+++ b/Proiect 17/ProiectFD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diana.forrai/Desktop/an4/FD/Fiabilitate-si-Diagnoza/Proiect 17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279ECA5-D7C1-CF45-8DB0-E2080B604A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A07F0-DC2E-A149-BD22-B45E772119C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{29064307-867F-4D48-90FB-D8A75B031525}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{29064307-867F-4D48-90FB-D8A75B031525}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,50 +482,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>499894</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>7720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>824149</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>18818</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B4FCED-9791-72A8-1A6B-AC42B2835568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="499894" y="16625805"/>
-          <a:ext cx="9538510" cy="5280247"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>472872</xdr:colOff>
       <xdr:row>81</xdr:row>
@@ -551,7 +507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -604,6 +560,50 @@
         <a:xfrm>
           <a:off x="21568833" y="17399000"/>
           <a:ext cx="9934222" cy="5588000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>13408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>804335</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>5912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A38B412-620D-638A-3F7D-36EE13961C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190502" y="17370075"/>
+          <a:ext cx="9927166" cy="5495837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6665AD2C-3746-7545-869E-BEDFA3760268}">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE116" sqref="AE116"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M118" sqref="M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
